--- a/results/FrequencyTables/27404981_gRNA-TataA2.xlsx
+++ b/results/FrequencyTables/27404981_gRNA-TataA2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.956765412329864</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0368294635708567</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00480384307445957</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00480384307445957</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00720576461168935</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00640512409927942</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0210526315789474</v>
+        <v>0.00320256204963971</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00400320256204964</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.945556445156125</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="U2">
-        <v>0.0421052631578947</v>
+        <v>0.0176140912730184</v>
       </c>
       <c r="V2">
-        <v>0.0105263157894737</v>
+        <v>0.0200160128102482</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00480384307445957</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00640512409927942</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,70 +539,70 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.032826261008807</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00800640512409928</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.956765412329864</v>
       </c>
       <c r="E3">
-        <v>0.0842105263157895</v>
+        <v>0.129703763010408</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00960768614891913</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.964771817453963</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0312249799839872</v>
       </c>
       <c r="I3">
-        <v>0.0736842105263158</v>
+        <v>0.056044835868695</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="K3">
-        <v>0.105263157894737</v>
+        <v>0.204963971176942</v>
       </c>
       <c r="L3">
-        <v>0.105263157894737</v>
+        <v>0.0744595676541233</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.99759807846277</v>
       </c>
       <c r="O3">
-        <v>0.905263157894737</v>
+        <v>0.926341072858287</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0056044835868695</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.992794235388311</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00320256204963971</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="W3">
-        <v>0.0105263157894737</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0056044835868695</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.951961569255404</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0368294635708567</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.958366693354684</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0312249799839872</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00320256204963971</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00320256204963971</v>
       </c>
       <c r="K4">
-        <v>0.0421052631578947</v>
+        <v>0.0312249799839872</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="M4">
-        <v>0.989473684210526</v>
+        <v>0.99519615692554</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.99919935948759</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00400320256204964</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0315789473684211</v>
+        <v>0.032826261008807</v>
       </c>
       <c r="V4">
-        <v>0.989473684210526</v>
+        <v>0.975980784627702</v>
       </c>
       <c r="W4">
-        <v>0.989473684210526</v>
+        <v>0.991993594875901</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.990392313851081</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00480384307445957</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00160128102481986</v>
       </c>
       <c r="E5">
-        <v>0.91578947368421</v>
+        <v>0.863891112890312</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0296236989591673</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.968775020016013</v>
       </c>
       <c r="I5">
-        <v>0.926315789473684</v>
+        <v>0.933546837469976</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.993594875900721</v>
       </c>
       <c r="K5">
-        <v>0.852631578947368</v>
+        <v>0.760608486789431</v>
       </c>
       <c r="L5">
-        <v>0.894736842105263</v>
+        <v>0.917534027221777</v>
       </c>
       <c r="M5">
-        <v>0.0105263157894737</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0736842105263158</v>
+        <v>0.0696557245796637</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.993594875900721</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.991192954363491</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0480384307445957</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00640512409927942</v>
       </c>
       <c r="U5">
-        <v>0.926315789473684</v>
+        <v>0.946357085668535</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000800640512409928</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00240192153722978</v>
       </c>
     </row>
   </sheetData>
